--- a/AAII_Financials/Quarterly/MVEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MVEN_QTR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4871AB4-9956-48EF-96A6-CB1DBD302388}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="MVEN" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
   <si>
     <t>MVEN</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,167 +654,231 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H7" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I7" s="2">
         <v>43281</v>
       </c>
-      <c r="E7" s="2">
+      <c r="J7" s="2">
         <v>43190</v>
       </c>
-      <c r="F7" s="2">
+      <c r="K7" s="2">
         <v>43100</v>
       </c>
-      <c r="G7" s="2">
+      <c r="L7" s="2">
         <v>43008</v>
       </c>
-      <c r="H7" s="2">
+      <c r="M7" s="2">
         <v>42916</v>
       </c>
-      <c r="I7" s="2">
+      <c r="N7" s="2">
         <v>42825</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P7" s="2">
         <v>42643</v>
       </c>
-      <c r="L7" s="2">
+      <c r="Q7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>32100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>23100</v>
+      </c>
+      <c r="F8" s="3">
+        <v>30400</v>
+      </c>
+      <c r="G8" s="3">
+        <v>4200</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I8" s="3">
         <v>200</v>
       </c>
-      <c r="E8" s="3">
+      <c r="J8" s="3">
         <v>100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="K8" s="3">
         <v>100</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
       <c r="L8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>24700</v>
+      </c>
+      <c r="E9" s="3">
+        <v>24900</v>
+      </c>
+      <c r="F9" s="3">
+        <v>26700</v>
+      </c>
+      <c r="G9" s="3">
+        <v>3700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1800</v>
+      </c>
+      <c r="I9" s="3">
         <v>1100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="J9" s="3">
         <v>1000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="K9" s="3">
         <v>900</v>
       </c>
-      <c r="G9" s="3">
+      <c r="L9" s="3">
         <v>400</v>
       </c>
-      <c r="H9" s="3">
+      <c r="M9" s="3">
         <v>400</v>
       </c>
-      <c r="I9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E10" s="3">
+        <v>-1800</v>
+      </c>
+      <c r="F10" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G10" s="3">
+        <v>500</v>
+      </c>
+      <c r="H10" s="3">
+        <v>-600</v>
+      </c>
+      <c r="I10" s="3">
         <v>-900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="J10" s="3">
         <v>-900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="K10" s="3">
         <v>-800</v>
       </c>
-      <c r="G10" s="3">
+      <c r="L10" s="3">
         <v>-400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="M10" s="3">
         <v>-400</v>
       </c>
-      <c r="I10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -862,40 +891,60 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" s="3"/>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="3">
-        <v>100</v>
-      </c>
-      <c r="E12" s="3">
-        <v>100</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0</v>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G12" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="H12" s="3">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
+      <c r="J12" s="3">
+        <v>100</v>
       </c>
       <c r="K12" s="3">
+        <v>0</v>
+      </c>
+      <c r="L12" s="3">
+        <v>0</v>
+      </c>
+      <c r="M12" s="3">
+        <v>0</v>
+      </c>
+      <c r="N12" s="3">
+        <v>100</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="3">
         <v>400</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -926,31 +975,46 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="E14" s="3">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="F14" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="G14" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>3900</v>
       </c>
       <c r="I14" s="3">
-        <v>0</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
+        <v>1400</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K14" s="3">
         <v>0</v>
@@ -958,31 +1022,46 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="E15" s="3">
-        <v>0</v>
+        <v>4100</v>
       </c>
       <c r="F15" s="3">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3">
-        <v>0</v>
-      </c>
-      <c r="H15" s="3">
-        <v>0</v>
-      </c>
-      <c r="I15" s="3">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
+        <v>4100</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K15" s="3">
         <v>0</v>
@@ -990,8 +1069,23 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1001,72 +1095,107 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M16" s="3"/>
+      <c r="N16" s="3"/>
+      <c r="O16" s="3"/>
+      <c r="P16" s="3"/>
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>3800</v>
+        <v>46200</v>
       </c>
       <c r="E17" s="3">
+        <v>45300</v>
+      </c>
+      <c r="F17" s="3">
+        <v>51200</v>
+      </c>
+      <c r="G17" s="3">
+        <v>9700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8600</v>
+      </c>
+      <c r="I17" s="3">
+        <v>5500</v>
+      </c>
+      <c r="J17" s="3">
         <v>3700</v>
       </c>
-      <c r="F17" s="3">
+      <c r="K17" s="3">
         <v>2000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="L17" s="3">
         <v>1800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="M17" s="3">
         <v>1600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="N17" s="3">
         <v>1000</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" s="3">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P17" s="3">
         <v>1500</v>
       </c>
-      <c r="L17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-14100</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-5500</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-7400</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="J18" s="3">
         <v>-3600</v>
       </c>
-      <c r="E18" s="3">
-        <v>-3600</v>
-      </c>
-      <c r="F18" s="3">
+      <c r="K18" s="3">
         <v>-1900</v>
       </c>
-      <c r="G18" s="3">
+      <c r="L18" s="3">
         <v>-1800</v>
       </c>
-      <c r="H18" s="3">
+      <c r="M18" s="3">
         <v>-1600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="N18" s="3">
         <v>-1000</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K18" s="3">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P18" s="3">
         <v>-1500</v>
       </c>
-      <c r="L18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="Q18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1079,31 +1208,36 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M19" s="3"/>
+      <c r="N19" s="3"/>
+      <c r="O19" s="3"/>
+      <c r="P19" s="3"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>300</v>
+        <v>-2900</v>
       </c>
       <c r="E20" s="3">
-        <v>0</v>
+        <v>3200</v>
       </c>
       <c r="F20" s="3">
-        <v>0</v>
+        <v>1800</v>
       </c>
       <c r="G20" s="3">
-        <v>0</v>
+        <v>-2200</v>
       </c>
       <c r="H20" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I20" s="3">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
+        <v>200</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
       </c>
       <c r="K20" s="3">
         <v>0</v>
@@ -1111,124 +1245,184 @@
       <c r="L20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M20" s="3">
+        <v>0</v>
+      </c>
+      <c r="N20" s="3">
+        <v>0</v>
+      </c>
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P20" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
-        <v>-2800</v>
+        <v>-10900</v>
       </c>
       <c r="E21" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-12800</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-4700</v>
+      </c>
+      <c r="J21" s="3">
         <v>-3200</v>
       </c>
-      <c r="F21" s="3">
+      <c r="K21" s="3">
         <v>-1600</v>
       </c>
-      <c r="G21" s="3">
+      <c r="L21" s="3">
         <v>-1600</v>
       </c>
-      <c r="H21" s="3">
+      <c r="M21" s="3">
         <v>-1500</v>
       </c>
-      <c r="I21" s="3">
+      <c r="N21" s="3">
         <v>-1000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
-        <v>200</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
+        <v>4300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>4100</v>
+      </c>
+      <c r="F22" s="3">
+        <v>3800</v>
       </c>
       <c r="G22" s="3">
-        <v>0</v>
+        <v>1000</v>
       </c>
       <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
+        <v>1400</v>
+      </c>
+      <c r="I22" s="3">
+        <v>100</v>
       </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
+      <c r="K22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-3500</v>
+        <v>-21300</v>
       </c>
       <c r="E23" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-8700</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J23" s="3">
         <v>-3600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="K23" s="3">
         <v>-1900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="L23" s="3">
         <v>-1800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="M23" s="3">
         <v>-1600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="N23" s="3">
         <v>-1000</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K23" s="3">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P23" s="3">
         <v>-1500</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>3</v>
+      <c r="D24" s="3">
+        <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
+        <v>-100</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1236,11 +1430,26 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1271,72 +1480,117 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-3500</v>
+        <v>-21300</v>
       </c>
       <c r="E26" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J26" s="3">
         <v>-3600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="K26" s="3">
         <v>-1900</v>
       </c>
-      <c r="G26" s="3">
+      <c r="L26" s="3">
         <v>-1800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="M26" s="3">
         <v>-1600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="N26" s="3">
         <v>-1000</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K26" s="3">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P26" s="3">
         <v>-1500</v>
       </c>
-      <c r="L26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="Q26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-3500</v>
+        <v>-21400</v>
       </c>
       <c r="E27" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J27" s="3">
         <v>-3600</v>
       </c>
-      <c r="F27" s="3">
+      <c r="K27" s="3">
         <v>-1900</v>
       </c>
-      <c r="G27" s="3">
+      <c r="L27" s="3">
         <v>-1800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="M27" s="3">
         <v>-1600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="N27" s="3">
         <v>-1000</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K27" s="3">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P27" s="3">
         <v>-1500</v>
       </c>
-      <c r="L27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="Q27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1367,8 +1621,23 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1399,8 +1668,23 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1431,8 +1715,23 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1463,31 +1762,46 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-300</v>
+        <v>2900</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>-3200</v>
       </c>
       <c r="F32" s="3">
-        <v>0</v>
+        <v>-1800</v>
       </c>
       <c r="G32" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="H32" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="I32" s="3">
-        <v>0</v>
-      </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
+        <v>-200</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
       </c>
       <c r="K32" s="3">
         <v>0</v>
@@ -1495,40 +1809,70 @@
       <c r="L32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="3">
+        <v>0</v>
+      </c>
+      <c r="N32" s="3">
+        <v>0</v>
+      </c>
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P32" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-3500</v>
+        <v>-21400</v>
       </c>
       <c r="E33" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J33" s="3">
         <v>-3600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="K33" s="3">
         <v>-1900</v>
       </c>
-      <c r="G33" s="3">
+      <c r="L33" s="3">
         <v>-1800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="N33" s="3">
         <v>-1000</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K33" s="3">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P33" s="3">
         <v>-1500</v>
       </c>
-      <c r="L33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1559,77 +1903,122 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-3500</v>
+        <v>-21400</v>
       </c>
       <c r="E35" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J35" s="3">
         <v>-3600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="K35" s="3">
         <v>-1900</v>
       </c>
-      <c r="G35" s="3">
+      <c r="L35" s="3">
         <v>-1800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="N35" s="3">
         <v>-1000</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K35" s="3">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P35" s="3">
         <v>-1500</v>
       </c>
-      <c r="L35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H38" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I38" s="2">
         <v>43281</v>
       </c>
-      <c r="E38" s="2">
+      <c r="J38" s="2">
         <v>43190</v>
       </c>
-      <c r="F38" s="2">
+      <c r="K38" s="2">
         <v>43100</v>
       </c>
-      <c r="G38" s="2">
+      <c r="L38" s="2">
         <v>43008</v>
       </c>
-      <c r="H38" s="2">
+      <c r="M38" s="2">
         <v>42916</v>
       </c>
-      <c r="I38" s="2">
+      <c r="N38" s="2">
         <v>42825</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P38" s="2">
         <v>42643</v>
       </c>
-      <c r="L38" s="2">
+      <c r="Q38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1642,8 +2031,13 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1656,104 +2050,154 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="3"/>
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F41" s="3">
+        <v>7500</v>
+      </c>
+      <c r="G41" s="3">
+        <v>2400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>1900</v>
+      </c>
+      <c r="I41" s="3">
         <v>100</v>
       </c>
-      <c r="E41" s="3">
+      <c r="J41" s="3">
         <v>1500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="K41" s="3">
         <v>600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="L41" s="3">
         <v>1700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="M41" s="3">
         <v>1400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="N41" s="3">
         <v>3100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="P41" s="3">
         <v>500</v>
       </c>
-      <c r="L41" s="3">
+      <c r="Q41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K42" s="3">
+      <c r="D42" s="3">
+        <v>0</v>
+      </c>
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>0</v>
+      </c>
+      <c r="G42" s="3">
+        <v>0</v>
+      </c>
+      <c r="H42" s="3">
+        <v>0</v>
+      </c>
+      <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P42" s="3">
         <v>1100</v>
       </c>
-      <c r="L42" s="3">
+      <c r="Q42" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>11700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>10600</v>
+      </c>
+      <c r="F43" s="3">
+        <v>15900</v>
+      </c>
+      <c r="G43" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H43" s="3">
+        <v>1600</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="J43" s="3">
         <v>100</v>
       </c>
-      <c r="F43" s="3">
+      <c r="K43" s="3">
         <v>100</v>
       </c>
-      <c r="G43" s="3">
-        <v>0</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
+        <v>0</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P43" s="3">
         <v>600</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1784,153 +2228,228 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>29200</v>
+      </c>
+      <c r="F45" s="3">
+        <v>27200</v>
+      </c>
+      <c r="G45" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H45" s="3">
+        <v>400</v>
+      </c>
+      <c r="I45" s="3">
         <v>300</v>
       </c>
-      <c r="E45" s="3">
+      <c r="J45" s="3">
         <v>600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="K45" s="3">
         <v>3200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3">
+      <c r="N45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
-      <c r="L45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="P45" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>46400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>42100</v>
+      </c>
+      <c r="F46" s="3">
+        <v>50600</v>
+      </c>
+      <c r="G46" s="3">
+        <v>9500</v>
+      </c>
+      <c r="H46" s="3">
+        <v>3800</v>
+      </c>
+      <c r="I46" s="3">
         <v>600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="J46" s="3">
         <v>2200</v>
       </c>
-      <c r="F46" s="3">
+      <c r="K46" s="3">
         <v>3900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="L46" s="3">
         <v>1800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="M46" s="3">
         <v>1500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="N46" s="3">
         <v>3200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="O46" s="3">
         <v>700</v>
       </c>
-      <c r="K46" s="3">
+      <c r="P46" s="3">
         <v>2300</v>
       </c>
-      <c r="L46" s="3">
+      <c r="Q46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3">
+      <c r="D47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H47" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I47" s="3">
         <v>1000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="J47" s="3">
         <v>1000</v>
       </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K47" s="3" t="s">
         <v>3</v>
       </c>
       <c r="L47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19900</v>
+      </c>
+      <c r="E48" s="3">
+        <v>20900</v>
+      </c>
+      <c r="F48" s="3">
+        <v>21500</v>
+      </c>
+      <c r="G48" s="3">
+        <v>100</v>
+      </c>
+      <c r="H48" s="3">
+        <v>100</v>
+      </c>
+      <c r="I48" s="3">
         <v>4200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="J48" s="3">
         <v>3800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="K48" s="3">
         <v>2700</v>
       </c>
-      <c r="G48" s="3">
+      <c r="L48" s="3">
         <v>2500</v>
       </c>
-      <c r="H48" s="3">
+      <c r="M48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="N48" s="3">
         <v>1200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="O48" s="3">
         <v>500</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
-        <v>0</v>
+        <v>100400</v>
       </c>
       <c r="E49" s="3">
-        <v>0</v>
+        <v>105200</v>
       </c>
       <c r="F49" s="3">
-        <v>0</v>
+        <v>109600</v>
       </c>
       <c r="G49" s="3">
-        <v>0</v>
+        <v>27400</v>
       </c>
       <c r="H49" s="3">
-        <v>0</v>
+        <v>13300</v>
       </c>
       <c r="I49" s="3">
         <v>0</v>
@@ -1938,14 +2457,29 @@
       <c r="J49" s="3">
         <v>0</v>
       </c>
-      <c r="K49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K49" s="3">
+        <v>0</v>
+      </c>
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+      <c r="P49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1976,8 +2510,23 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2008,40 +2557,70 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>24100</v>
+      </c>
+      <c r="E52" s="3">
+        <v>28300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>27300</v>
+      </c>
+      <c r="G52" s="3">
+        <v>100</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I52" s="3">
         <v>5000</v>
       </c>
-      <c r="E52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P52" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2072,40 +2651,70 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>10800</v>
+        <v>190800</v>
       </c>
       <c r="E54" s="3">
+        <v>196500</v>
+      </c>
+      <c r="F54" s="3">
+        <v>209100</v>
+      </c>
+      <c r="G54" s="3">
+        <v>37200</v>
+      </c>
+      <c r="H54" s="3">
+        <v>19700</v>
+      </c>
+      <c r="I54" s="3">
+        <v>10900</v>
+      </c>
+      <c r="J54" s="3">
         <v>7000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="K54" s="3">
         <v>6600</v>
       </c>
-      <c r="G54" s="3">
+      <c r="L54" s="3">
         <v>4400</v>
       </c>
-      <c r="H54" s="3">
+      <c r="M54" s="3">
         <v>3500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="N54" s="3">
         <v>4400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="O54" s="3">
         <v>1300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="P54" s="3">
         <v>2300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="Q54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2118,8 +2727,13 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M55" s="3"/>
+      <c r="N55" s="3"/>
+      <c r="O55" s="3"/>
+      <c r="P55" s="3"/>
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2132,150 +2746,215 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+      <c r="P56" s="3"/>
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8700</v>
+      </c>
+      <c r="E57" s="3">
+        <v>8500</v>
+      </c>
+      <c r="F57" s="3">
+        <v>12200</v>
+      </c>
+      <c r="G57" s="3">
+        <v>4900</v>
+      </c>
+      <c r="H57" s="3">
+        <v>700</v>
+      </c>
+      <c r="I57" s="3">
         <v>500</v>
       </c>
-      <c r="E57" s="3">
+      <c r="J57" s="3">
         <v>500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="K57" s="3">
         <v>200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="L57" s="3">
         <v>100</v>
       </c>
-      <c r="H57" s="3">
-        <v>0</v>
-      </c>
-      <c r="I57" s="3">
+      <c r="M57" s="3">
+        <v>0</v>
+      </c>
+      <c r="N57" s="3">
         <v>200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="K57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="L57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="Q57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>2900</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
+        <v>4400</v>
+      </c>
+      <c r="E58" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F58" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G58" s="3">
+        <v>1400</v>
+      </c>
+      <c r="H58" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I58" s="3">
+        <v>5400</v>
       </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
-      </c>
-      <c r="L58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P58" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>93800</v>
       </c>
       <c r="E59" s="3">
+        <v>91900</v>
+      </c>
+      <c r="F59" s="3">
+        <v>89100</v>
+      </c>
+      <c r="G59" s="3">
+        <v>15200</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5100</v>
+      </c>
+      <c r="I59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="J59" s="3">
         <v>800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="K59" s="3">
         <v>3300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="L59" s="3">
         <v>600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="M59" s="3">
         <v>200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="N59" s="3">
         <v>700</v>
       </c>
-      <c r="J59" s="3">
+      <c r="O59" s="3">
         <v>200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="P59" s="3">
         <v>100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="Q59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6200</v>
+        <v>106800</v>
       </c>
       <c r="E60" s="3">
+        <v>104500</v>
+      </c>
+      <c r="F60" s="3">
+        <v>107500</v>
+      </c>
+      <c r="G60" s="3">
+        <v>21500</v>
+      </c>
+      <c r="H60" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I60" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J60" s="3">
         <v>1300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="K60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="L60" s="3">
         <v>700</v>
       </c>
-      <c r="H60" s="3">
+      <c r="M60" s="3">
         <v>300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="N60" s="3">
         <v>900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="O60" s="3">
         <v>300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="P60" s="3">
         <v>200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="Q60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>0</v>
+        <v>80000</v>
       </c>
       <c r="E61" s="3">
-        <v>0</v>
+        <v>75900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>66400</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>7600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2292,22 +2971,37 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>33900</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>35200</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>500</v>
       </c>
       <c r="H62" s="3">
         <v>0</v>
@@ -2324,8 +3018,23 @@
       <c r="L62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="3">
+        <v>0</v>
+      </c>
+      <c r="N62" s="3">
+        <v>0</v>
+      </c>
+      <c r="O62" s="3">
+        <v>0</v>
+      </c>
+      <c r="P62" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2356,8 +3065,23 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2388,8 +3112,23 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2420,40 +3159,70 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>6200</v>
+        <v>220700</v>
       </c>
       <c r="E66" s="3">
+        <v>215400</v>
+      </c>
+      <c r="F66" s="3">
+        <v>209000</v>
+      </c>
+      <c r="G66" s="3">
+        <v>29700</v>
+      </c>
+      <c r="H66" s="3">
+        <v>6700</v>
+      </c>
+      <c r="I66" s="3">
+        <v>8900</v>
+      </c>
+      <c r="J66" s="3">
         <v>1300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="K66" s="3">
         <v>3400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="L66" s="3">
         <v>700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="M66" s="3">
         <v>300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="N66" s="3">
         <v>900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="O66" s="3">
         <v>300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="P66" s="3">
         <v>200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="Q66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2466,8 +3235,13 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2498,8 +3272,23 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2530,25 +3319,40 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>200</v>
+        <v>61500</v>
       </c>
       <c r="E70" s="3">
-        <v>200</v>
+        <v>55700</v>
       </c>
       <c r="F70" s="3">
-        <v>200</v>
+        <v>55700</v>
       </c>
       <c r="G70" s="3">
-        <v>200</v>
+        <v>18400</v>
       </c>
       <c r="H70" s="3">
-        <v>200</v>
+        <v>18200</v>
       </c>
       <c r="I70" s="3">
         <v>200</v>
@@ -2562,8 +3366,23 @@
       <c r="L70" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M70" s="3">
+        <v>200</v>
+      </c>
+      <c r="N70" s="3">
+        <v>200</v>
+      </c>
+      <c r="O70" s="3">
+        <v>200</v>
+      </c>
+      <c r="P70" s="3">
+        <v>200</v>
+      </c>
+      <c r="Q70" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2594,40 +3413,70 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>-15500</v>
+        <v>-140200</v>
       </c>
       <c r="E72" s="3">
+        <v>-119000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-95800</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-34500</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-25900</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="J72" s="3">
         <v>-12000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="K72" s="3">
         <v>-8500</v>
       </c>
-      <c r="G72" s="3">
+      <c r="L72" s="3">
         <v>-6600</v>
       </c>
-      <c r="H72" s="3">
+      <c r="M72" s="3">
         <v>-4800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="N72" s="3">
         <v>-3200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="O72" s="3">
         <v>-2200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="P72" s="3">
         <v>-62700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="Q72" s="3">
         <v>-62600</v>
       </c>
     </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2658,8 +3507,23 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2690,8 +3554,23 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2722,40 +3601,70 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>4500</v>
+        <v>-91300</v>
       </c>
       <c r="E76" s="3">
+        <v>-74600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-55600</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="I76" s="3">
+        <v>1800</v>
+      </c>
+      <c r="J76" s="3">
         <v>5500</v>
       </c>
-      <c r="F76" s="3">
+      <c r="K76" s="3">
         <v>3000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="L76" s="3">
         <v>3500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="M76" s="3">
         <v>3000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="N76" s="3">
         <v>3400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="O76" s="3">
         <v>800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="P76" s="3">
         <v>1900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="Q76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2786,77 +3695,122 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="F80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="G80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="H80" s="2">
+        <v>43373</v>
+      </c>
+      <c r="I80" s="2">
         <v>43281</v>
       </c>
-      <c r="E80" s="2">
+      <c r="J80" s="2">
         <v>43190</v>
       </c>
-      <c r="F80" s="2">
+      <c r="K80" s="2">
         <v>43100</v>
       </c>
-      <c r="G80" s="2">
+      <c r="L80" s="2">
         <v>43008</v>
       </c>
-      <c r="H80" s="2">
+      <c r="M80" s="2">
         <v>42916</v>
       </c>
-      <c r="I80" s="2">
+      <c r="N80" s="2">
         <v>42825</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K80" s="2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="P80" s="2">
         <v>42643</v>
       </c>
-      <c r="L80" s="2">
+      <c r="Q80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-3500</v>
+        <v>-21400</v>
       </c>
       <c r="E81" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-22800</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-26700</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-5200</v>
+      </c>
+      <c r="J81" s="3">
         <v>-3600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="K81" s="3">
         <v>-1900</v>
       </c>
-      <c r="G81" s="3">
+      <c r="L81" s="3">
         <v>-1800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="N81" s="3">
         <v>-1000</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K81" s="3">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P81" s="3">
         <v>-1500</v>
       </c>
-      <c r="L81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="Q81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2869,40 +3823,60 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M82" s="3"/>
+      <c r="N82" s="3"/>
+      <c r="O82" s="3"/>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="E83" s="3">
+        <v>6300</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G83" s="3">
+        <v>1000</v>
+      </c>
+      <c r="H83" s="3">
+        <v>600</v>
+      </c>
+      <c r="I83" s="3">
         <v>400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="J83" s="3">
         <v>400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="K83" s="3">
         <v>300</v>
       </c>
-      <c r="G83" s="3">
+      <c r="L83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3">
+      <c r="M83" s="3">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="N83" s="3">
+        <v>0</v>
+      </c>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2933,8 +3907,23 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2965,8 +3954,23 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2997,8 +4001,23 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3029,8 +4048,23 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3061,40 +4095,70 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-2900</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-10200</v>
+      </c>
+      <c r="G89" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="H89" s="3">
+        <v>-2200</v>
+      </c>
+      <c r="I89" s="3">
         <v>-2300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="J89" s="3">
         <v>-1800</v>
       </c>
-      <c r="F89" s="3">
+      <c r="K89" s="3">
         <v>-1500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="L89" s="3">
         <v>-900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="M89" s="3">
         <v>-1200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="N89" s="3">
         <v>-500</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K89" s="3">
-        <v>0</v>
-      </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P89" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3107,8 +4171,13 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M90" s="3"/>
+      <c r="N90" s="3"/>
+      <c r="O90" s="3"/>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3116,31 +4185,46 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="F91" s="3">
-        <v>0</v>
+        <v>-900</v>
       </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3">
+        <v>0</v>
+      </c>
+      <c r="N91" s="3">
+        <v>0</v>
+      </c>
+      <c r="O91" s="3">
+        <v>0</v>
+      </c>
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3171,8 +4255,23 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3203,40 +4302,70 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1400</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="G94" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="H94" s="3">
+        <v>-7300</v>
+      </c>
+      <c r="I94" s="3">
         <v>-5600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="J94" s="3">
         <v>-1600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="K94" s="3">
         <v>-500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="L94" s="3">
         <v>-600</v>
       </c>
-      <c r="H94" s="3">
+      <c r="M94" s="3">
         <v>-500</v>
       </c>
-      <c r="I94" s="3">
+      <c r="N94" s="3">
         <v>-400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K94" s="3">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P94" s="3">
         <v>-300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="Q94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3249,8 +4378,13 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M95" s="3"/>
+      <c r="N95" s="3"/>
+      <c r="O95" s="3"/>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3281,8 +4415,23 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3313,8 +4462,23 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3345,8 +4509,23 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3377,40 +4556,70 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E100" s="3">
+        <v>3400</v>
+      </c>
+      <c r="F100" s="3">
+        <v>11200</v>
+      </c>
+      <c r="G100" s="3">
+        <v>11000</v>
+      </c>
+      <c r="H100" s="3">
+        <v>11200</v>
+      </c>
+      <c r="I100" s="3">
         <v>6500</v>
       </c>
-      <c r="E100" s="3">
+      <c r="J100" s="3">
         <v>1300</v>
       </c>
-      <c r="F100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="L100" s="3">
         <v>1700</v>
       </c>
-      <c r="H100" s="3">
+      <c r="M100" s="3">
         <v>100</v>
       </c>
-      <c r="I100" s="3">
+      <c r="N100" s="3">
         <v>3500</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3441,36 +4650,66 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="M101" s="3">
+        <v>0</v>
+      </c>
+      <c r="N101" s="3">
+        <v>0</v>
+      </c>
+      <c r="O101" s="3">
+        <v>0</v>
+      </c>
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-5300</v>
+      </c>
+      <c r="F102" s="3">
+        <v>-900</v>
+      </c>
+      <c r="G102" s="3">
+        <v>700</v>
+      </c>
+      <c r="H102" s="3">
+        <v>1700</v>
+      </c>
+      <c r="I102" s="3">
         <v>-1400</v>
       </c>
-      <c r="E102" s="3">
+      <c r="J102" s="3">
         <v>-2100</v>
       </c>
-      <c r="F102" s="3">
+      <c r="K102" s="3">
         <v>1900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="L102" s="3">
         <v>300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="M102" s="3">
         <v>-1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="N102" s="3">
         <v>2500</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K102" s="3">
+      <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3">
         <v>-200</v>
       </c>
-      <c r="L102" s="3">
+      <c r="Q102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MVEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MVEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
   <si>
     <t>MVEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,117 +665,128 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="T7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>34700</v>
+      </c>
+      <c r="E8" s="3">
+        <v>33600</v>
+      </c>
+      <c r="F8" s="3">
+        <v>42400</v>
+      </c>
+      <c r="G8" s="3">
         <v>32100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="H8" s="3">
         <v>23100</v>
       </c>
-      <c r="F8" s="3">
+      <c r="I8" s="3">
         <v>30400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="J8" s="3">
         <v>4200</v>
       </c>
-      <c r="H8" s="3">
+      <c r="K8" s="3">
         <v>1200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="L8" s="3">
         <v>200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="M8" s="3">
         <v>100</v>
       </c>
-      <c r="K8" s="3">
+      <c r="N8" s="3">
         <v>100</v>
       </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
+      <c r="O8" s="3">
+        <v>0</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -783,102 +794,129 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
-        <v>24700</v>
+        <v>23600</v>
       </c>
       <c r="E9" s="3">
-        <v>24900</v>
+        <v>28200</v>
       </c>
       <c r="F9" s="3">
         <v>26700</v>
       </c>
       <c r="G9" s="3">
+        <v>24700</v>
+      </c>
+      <c r="H9" s="3">
+        <v>24900</v>
+      </c>
+      <c r="I9" s="3">
+        <v>26700</v>
+      </c>
+      <c r="J9" s="3">
         <v>3700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="K9" s="3">
         <v>1800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="L9" s="3">
         <v>1100</v>
       </c>
-      <c r="J9" s="3">
+      <c r="M9" s="3">
         <v>1000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="N9" s="3">
         <v>900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="O9" s="3">
         <v>400</v>
       </c>
-      <c r="M9" s="3">
+      <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="N9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E10" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F10" s="3">
+        <v>15700</v>
+      </c>
+      <c r="G10" s="3">
         <v>7400</v>
       </c>
-      <c r="E10" s="3">
+      <c r="H10" s="3">
         <v>-1800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="I10" s="3">
         <v>3700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="J10" s="3">
         <v>500</v>
       </c>
-      <c r="H10" s="3">
+      <c r="K10" s="3">
         <v>-600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="L10" s="3">
         <v>-900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="M10" s="3">
         <v>-900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="N10" s="3">
         <v>-800</v>
       </c>
-      <c r="L10" s="3">
+      <c r="O10" s="3">
         <v>-400</v>
       </c>
-      <c r="M10" s="3">
+      <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="N10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -896,8 +934,11 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+      <c r="S11" s="3"/>
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -910,41 +951,50 @@
       <c r="F12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J12" s="3">
         <v>600</v>
       </c>
-      <c r="H12" s="3">
+      <c r="K12" s="3">
         <v>400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="L12" s="3">
         <v>100</v>
       </c>
-      <c r="J12" s="3">
+      <c r="M12" s="3">
         <v>100</v>
       </c>
-      <c r="K12" s="3">
-        <v>0</v>
-      </c>
-      <c r="L12" s="3">
-        <v>0</v>
-      </c>
-      <c r="M12" s="3">
-        <v>0</v>
-      </c>
       <c r="N12" s="3">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>0</v>
+      </c>
+      <c r="P12" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="3">
         <v>100</v>
       </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S12" s="3">
         <v>400</v>
       </c>
-      <c r="Q12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -990,40 +1040,49 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E14" s="3">
         <v>300</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
+        <v>3300</v>
+      </c>
+      <c r="G14" s="3">
+        <v>300</v>
+      </c>
+      <c r="H14" s="3">
         <v>600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="I14" s="3">
         <v>500</v>
       </c>
-      <c r="G14" s="3">
+      <c r="J14" s="3">
         <v>2600</v>
       </c>
-      <c r="H14" s="3">
+      <c r="K14" s="3">
         <v>3900</v>
       </c>
-      <c r="I14" s="3">
+      <c r="L14" s="3">
         <v>1400</v>
       </c>
-      <c r="J14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
-      <c r="M14" s="3">
-        <v>0</v>
+      <c r="M14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N14" s="3">
         <v>0</v>
@@ -1037,40 +1096,49 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="F15" s="3">
+        <v>4000</v>
+      </c>
+      <c r="G15" s="3">
         <v>4100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="H15" s="3">
         <v>4100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="I15" s="3">
         <v>4100</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3">
-        <v>0</v>
-      </c>
-      <c r="L15" s="3">
-        <v>0</v>
-      </c>
-      <c r="M15" s="3">
-        <v>0</v>
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N15" s="3">
         <v>0</v>
@@ -1084,8 +1152,17 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1100,102 +1177,123 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+      <c r="S16" s="3"/>
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3">
         <v>46200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="H17" s="3">
         <v>45300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="I17" s="3">
         <v>51200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="J17" s="3">
         <v>9700</v>
       </c>
-      <c r="H17" s="3">
+      <c r="K17" s="3">
         <v>8600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="L17" s="3">
         <v>5500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="M17" s="3">
         <v>3700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="N17" s="3">
         <v>2000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="O17" s="3">
         <v>1800</v>
       </c>
-      <c r="M17" s="3">
+      <c r="P17" s="3">
         <v>1600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="Q17" s="3">
         <v>1000</v>
       </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S17" s="3">
         <v>1500</v>
       </c>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3">
         <v>-14100</v>
       </c>
-      <c r="E18" s="3">
+      <c r="H18" s="3">
         <v>-22200</v>
       </c>
-      <c r="F18" s="3">
+      <c r="I18" s="3">
         <v>-20800</v>
       </c>
-      <c r="G18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="K18" s="3">
         <v>-7400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="L18" s="3">
         <v>-5300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="M18" s="3">
         <v>-3600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="N18" s="3">
         <v>-1900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="O18" s="3">
         <v>-1800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="P18" s="3">
         <v>-1600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="Q18" s="3">
         <v>-1000</v>
       </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S18" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1213,46 +1311,49 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+      <c r="S19" s="3"/>
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3">
         <v>-2900</v>
       </c>
-      <c r="E20" s="3">
+      <c r="H20" s="3">
         <v>3200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="I20" s="3">
         <v>1800</v>
       </c>
-      <c r="G20" s="3">
+      <c r="J20" s="3">
         <v>-2200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="K20" s="3">
         <v>100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="L20" s="3">
         <v>200</v>
       </c>
-      <c r="J20" s="3">
-        <v>0</v>
-      </c>
-      <c r="K20" s="3">
-        <v>0</v>
-      </c>
-      <c r="L20" s="3">
-        <v>0</v>
-      </c>
       <c r="M20" s="3">
         <v>0</v>
       </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="O20" s="3">
+        <v>0</v>
       </c>
       <c r="P20" s="3">
         <v>0</v>
@@ -1260,149 +1361,185 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3">
         <v>-10900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="H21" s="3">
         <v>-12700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="I21" s="3">
         <v>-12800</v>
       </c>
-      <c r="G21" s="3">
+      <c r="J21" s="3">
         <v>-6700</v>
       </c>
-      <c r="H21" s="3">
+      <c r="K21" s="3">
         <v>-6700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="L21" s="3">
         <v>-4700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="M21" s="3">
         <v>-3200</v>
       </c>
-      <c r="K21" s="3">
+      <c r="N21" s="3">
         <v>-1600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="O21" s="3">
         <v>-1600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="P21" s="3">
         <v>-1500</v>
       </c>
-      <c r="N21" s="3">
+      <c r="Q21" s="3">
         <v>-1000</v>
       </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q21" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E22" s="3">
+        <v>2800</v>
+      </c>
+      <c r="F22" s="3">
         <v>4300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="H22" s="3">
         <v>4100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="I22" s="3">
         <v>3800</v>
       </c>
-      <c r="G22" s="3">
+      <c r="J22" s="3">
         <v>1000</v>
       </c>
-      <c r="H22" s="3">
+      <c r="K22" s="3">
         <v>1400</v>
       </c>
-      <c r="I22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
+      <c r="O22" s="3">
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-25500</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-21800</v>
+      </c>
+      <c r="G23" s="3">
         <v>-21300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="H23" s="3">
         <v>-23200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="I23" s="3">
         <v>-22800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="J23" s="3">
         <v>-8600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="K23" s="3">
         <v>-8700</v>
       </c>
-      <c r="I23" s="3">
+      <c r="L23" s="3">
         <v>-5200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="M23" s="3">
         <v>-3600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="N23" s="3">
         <v>-1900</v>
       </c>
-      <c r="L23" s="3">
+      <c r="O23" s="3">
         <v>-1800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="P23" s="3">
         <v>-1600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="Q23" s="3">
         <v>-1000</v>
       </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S23" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1413,31 +1550,31 @@
         <v>3</v>
       </c>
       <c r="F24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3">
+      <c r="H24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I24" s="3">
+        <v>0</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="K24" s="3">
         <v>-100</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N24" s="3">
-        <v>0</v>
+      <c r="N24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O24" s="3" t="s">
         <v>3</v>
@@ -1448,8 +1585,17 @@
       <c r="Q24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1495,102 +1641,129 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3">
         <v>-21300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="H26" s="3">
         <v>-23200</v>
       </c>
-      <c r="F26" s="3">
+      <c r="I26" s="3">
         <v>-22800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="J26" s="3">
         <v>-8600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="K26" s="3">
         <v>-8600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="L26" s="3">
         <v>-5200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="M26" s="3">
         <v>-3600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="N26" s="3">
         <v>-1900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="O26" s="3">
         <v>-1800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="P26" s="3">
         <v>-1600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="Q26" s="3">
         <v>-1000</v>
       </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S26" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3">
         <v>-21400</v>
       </c>
-      <c r="E27" s="3">
+      <c r="H27" s="3">
         <v>-23200</v>
       </c>
-      <c r="F27" s="3">
+      <c r="I27" s="3">
         <v>-22800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="J27" s="3">
         <v>-8600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="K27" s="3">
         <v>-26700</v>
       </c>
-      <c r="I27" s="3">
+      <c r="L27" s="3">
         <v>-5200</v>
       </c>
-      <c r="J27" s="3">
+      <c r="M27" s="3">
         <v>-3600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="N27" s="3">
         <v>-1900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="O27" s="3">
         <v>-1800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="P27" s="3">
         <v>-1600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="Q27" s="3">
         <v>-1000</v>
       </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S27" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1636,8 +1809,17 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1683,8 +1865,17 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1730,8 +1921,17 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1777,46 +1977,55 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3">
         <v>2900</v>
       </c>
-      <c r="E32" s="3">
+      <c r="H32" s="3">
         <v>-3200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="I32" s="3">
         <v>-1800</v>
       </c>
-      <c r="G32" s="3">
+      <c r="J32" s="3">
         <v>2200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="K32" s="3">
         <v>-100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="L32" s="3">
         <v>-200</v>
       </c>
-      <c r="J32" s="3">
-        <v>0</v>
-      </c>
-      <c r="K32" s="3">
-        <v>0</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
       <c r="M32" s="3">
         <v>0</v>
       </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="O32" s="3">
+        <v>0</v>
       </c>
       <c r="P32" s="3">
         <v>0</v>
@@ -1824,55 +2033,73 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S32" s="3">
+        <v>0</v>
+      </c>
+      <c r="T32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G33" s="3">
         <v>-21400</v>
       </c>
-      <c r="E33" s="3">
+      <c r="H33" s="3">
         <v>-23200</v>
       </c>
-      <c r="F33" s="3">
+      <c r="I33" s="3">
         <v>-22800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="J33" s="3">
         <v>-8600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="K33" s="3">
         <v>-26700</v>
       </c>
-      <c r="I33" s="3">
+      <c r="L33" s="3">
         <v>-5200</v>
       </c>
-      <c r="J33" s="3">
+      <c r="M33" s="3">
         <v>-3600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="N33" s="3">
         <v>-1900</v>
       </c>
-      <c r="L33" s="3">
+      <c r="O33" s="3">
         <v>-1800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="P33" s="3">
         <v>-1600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="Q33" s="3">
         <v>-1000</v>
       </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S33" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1918,107 +2145,134 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G35" s="3">
         <v>-21400</v>
       </c>
-      <c r="E35" s="3">
+      <c r="H35" s="3">
         <v>-23200</v>
       </c>
-      <c r="F35" s="3">
+      <c r="I35" s="3">
         <v>-22800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="J35" s="3">
         <v>-8600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="K35" s="3">
         <v>-26700</v>
       </c>
-      <c r="I35" s="3">
+      <c r="L35" s="3">
         <v>-5200</v>
       </c>
-      <c r="J35" s="3">
+      <c r="M35" s="3">
         <v>-3600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="N35" s="3">
         <v>-1900</v>
       </c>
-      <c r="L35" s="3">
+      <c r="O35" s="3">
         <v>-1800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="P35" s="3">
         <v>-1600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="Q35" s="3">
         <v>-1000</v>
       </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S35" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="T38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2036,8 +2290,11 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2055,55 +2312,67 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+      <c r="S40" s="3"/>
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>6700</v>
+      </c>
+      <c r="E41" s="3">
+        <v>4500</v>
+      </c>
+      <c r="F41" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G41" s="3">
         <v>4700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="H41" s="3">
         <v>2300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="I41" s="3">
         <v>7500</v>
       </c>
-      <c r="G41" s="3">
+      <c r="J41" s="3">
         <v>2400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="K41" s="3">
         <v>1900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="L41" s="3">
         <v>100</v>
       </c>
-      <c r="J41" s="3">
+      <c r="M41" s="3">
         <v>1500</v>
       </c>
-      <c r="K41" s="3">
+      <c r="N41" s="3">
         <v>600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="O41" s="3">
         <v>1700</v>
       </c>
-      <c r="M41" s="3">
+      <c r="P41" s="3">
         <v>1400</v>
       </c>
-      <c r="N41" s="3">
+      <c r="Q41" s="3">
         <v>3100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="R41" s="3">
         <v>600</v>
       </c>
-      <c r="P41" s="3">
+      <c r="S41" s="3">
         <v>500</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="T41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2128,14 +2397,14 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
+        <v>0</v>
       </c>
       <c r="N42" s="3" t="s">
         <v>3</v>
@@ -2143,61 +2412,79 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P42" s="3">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S42" s="3">
         <v>1100</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="T42" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>14700</v>
+      </c>
+      <c r="E43" s="3">
+        <v>14100</v>
+      </c>
+      <c r="F43" s="3">
+        <v>16600</v>
+      </c>
+      <c r="G43" s="3">
         <v>11700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="H43" s="3">
         <v>10600</v>
       </c>
-      <c r="F43" s="3">
+      <c r="I43" s="3">
         <v>15900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="J43" s="3">
         <v>6100</v>
       </c>
-      <c r="H43" s="3">
+      <c r="K43" s="3">
         <v>1600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="M43" s="3">
         <v>100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="N43" s="3">
         <v>100</v>
       </c>
-      <c r="L43" s="3">
-        <v>0</v>
-      </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P43" s="3">
+      <c r="O43" s="3">
+        <v>0</v>
+      </c>
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S43" s="3">
         <v>600</v>
       </c>
-      <c r="Q43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2243,102 +2530,129 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>61000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>53100</v>
+      </c>
+      <c r="F45" s="3">
+        <v>33400</v>
+      </c>
+      <c r="G45" s="3">
         <v>30000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="H45" s="3">
         <v>29200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="I45" s="3">
         <v>27200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="K45" s="3">
         <v>400</v>
       </c>
-      <c r="I45" s="3">
+      <c r="L45" s="3">
         <v>300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="M45" s="3">
         <v>600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="N45" s="3">
         <v>3200</v>
-      </c>
-      <c r="L45" s="3">
-        <v>100</v>
-      </c>
-      <c r="M45" s="3">
-        <v>100</v>
-      </c>
-      <c r="N45" s="3">
-        <v>100</v>
       </c>
       <c r="O45" s="3">
         <v>100</v>
       </c>
       <c r="P45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="Q45" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="R45" s="3">
+        <v>100</v>
+      </c>
+      <c r="S45" s="3">
+        <v>0</v>
+      </c>
+      <c r="T45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>82400</v>
+      </c>
+      <c r="E46" s="3">
+        <v>71700</v>
+      </c>
+      <c r="F46" s="3">
+        <v>73800</v>
+      </c>
+      <c r="G46" s="3">
         <v>46400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="H46" s="3">
         <v>42100</v>
       </c>
-      <c r="F46" s="3">
+      <c r="I46" s="3">
         <v>50600</v>
       </c>
-      <c r="G46" s="3">
+      <c r="J46" s="3">
         <v>9500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="K46" s="3">
         <v>3800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="L46" s="3">
         <v>600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="M46" s="3">
         <v>2200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="N46" s="3">
         <v>3900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="O46" s="3">
         <v>1800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="P46" s="3">
         <v>1500</v>
       </c>
-      <c r="N46" s="3">
+      <c r="Q46" s="3">
         <v>3200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="R46" s="3">
         <v>700</v>
       </c>
-      <c r="P46" s="3">
+      <c r="S46" s="3">
         <v>2300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="T46" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2354,24 +2668,24 @@
       <c r="G47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H47" s="3">
+      <c r="H47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K47" s="3">
         <v>2500</v>
       </c>
-      <c r="I47" s="3">
+      <c r="L47" s="3">
         <v>1000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="K47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N47" s="3" t="s">
         <v>3</v>
       </c>
@@ -2384,82 +2698,100 @@
       <c r="Q47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>19200</v>
+      </c>
+      <c r="F48" s="3">
+        <v>21100</v>
+      </c>
+      <c r="G48" s="3">
         <v>19900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="H48" s="3">
         <v>20900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="I48" s="3">
         <v>21500</v>
       </c>
-      <c r="G48" s="3">
+      <c r="J48" s="3">
         <v>100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="K48" s="3">
         <v>100</v>
       </c>
-      <c r="I48" s="3">
+      <c r="L48" s="3">
         <v>4200</v>
       </c>
-      <c r="J48" s="3">
+      <c r="M48" s="3">
         <v>3800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="N48" s="3">
         <v>2700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="O48" s="3">
         <v>2500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="P48" s="3">
         <v>1900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="Q48" s="3">
         <v>1200</v>
       </c>
-      <c r="O48" s="3">
+      <c r="R48" s="3">
         <v>500</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q48" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>93300</v>
+      </c>
+      <c r="E49" s="3">
+        <v>90200</v>
+      </c>
+      <c r="F49" s="3">
+        <v>228500</v>
+      </c>
+      <c r="G49" s="3">
         <v>100400</v>
       </c>
-      <c r="E49" s="3">
+      <c r="H49" s="3">
         <v>105200</v>
       </c>
-      <c r="F49" s="3">
+      <c r="I49" s="3">
         <v>109600</v>
       </c>
-      <c r="G49" s="3">
+      <c r="J49" s="3">
         <v>27400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="K49" s="3">
         <v>13300</v>
       </c>
-      <c r="I49" s="3">
-        <v>0</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
-      </c>
-      <c r="K49" s="3">
-        <v>0</v>
-      </c>
       <c r="L49" s="3">
         <v>0</v>
       </c>
@@ -2472,14 +2804,23 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-      <c r="P49" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q49" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+      <c r="S49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2525,8 +2866,17 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2572,38 +2922,47 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>23900</v>
+      </c>
+      <c r="E52" s="3">
+        <v>27800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>25900</v>
+      </c>
+      <c r="G52" s="3">
         <v>24100</v>
       </c>
-      <c r="E52" s="3">
+      <c r="H52" s="3">
         <v>28300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="I52" s="3">
         <v>27300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="J52" s="3">
         <v>100</v>
       </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3">
         <v>5000</v>
       </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2613,14 +2972,23 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P52" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S52" s="3">
+        <v>0</v>
+      </c>
+      <c r="T52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2666,55 +3034,73 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>218500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>208800</v>
+      </c>
+      <c r="F54" s="3">
+        <v>214200</v>
+      </c>
+      <c r="G54" s="3">
         <v>190800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="H54" s="3">
         <v>196500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="I54" s="3">
         <v>209100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="J54" s="3">
         <v>37200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="K54" s="3">
         <v>19700</v>
       </c>
-      <c r="I54" s="3">
+      <c r="L54" s="3">
         <v>10900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="M54" s="3">
         <v>7000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="N54" s="3">
         <v>6600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="O54" s="3">
         <v>4400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="P54" s="3">
         <v>3500</v>
       </c>
-      <c r="N54" s="3">
+      <c r="Q54" s="3">
         <v>4400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="R54" s="3">
         <v>1300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="S54" s="3">
         <v>2300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="T54" s="3">
         <v>2300</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2732,8 +3118,11 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+      <c r="S55" s="3"/>
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2751,85 +3140,97 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+      <c r="S56" s="3"/>
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E57" s="3">
+        <v>10100</v>
+      </c>
+      <c r="F57" s="3">
+        <v>8200</v>
+      </c>
+      <c r="G57" s="3">
         <v>8700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="H57" s="3">
         <v>8500</v>
       </c>
-      <c r="F57" s="3">
+      <c r="I57" s="3">
         <v>12200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="J57" s="3">
         <v>4900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="K57" s="3">
         <v>700</v>
       </c>
-      <c r="I57" s="3">
+      <c r="L57" s="3">
         <v>500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="M57" s="3">
         <v>500</v>
-      </c>
-      <c r="K57" s="3">
-        <v>200</v>
-      </c>
-      <c r="L57" s="3">
-        <v>100</v>
-      </c>
-      <c r="M57" s="3">
-        <v>0</v>
       </c>
       <c r="N57" s="3">
         <v>200</v>
       </c>
       <c r="O57" s="3">
+        <v>100</v>
+      </c>
+      <c r="P57" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q57" s="3">
         <v>200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
+        <v>200</v>
+      </c>
+      <c r="S57" s="3">
         <v>100</v>
       </c>
-      <c r="Q57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>4900</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5400</v>
+      </c>
+      <c r="F58" s="3">
+        <v>7200</v>
+      </c>
+      <c r="G58" s="3">
         <v>4400</v>
       </c>
-      <c r="E58" s="3">
+      <c r="H58" s="3">
         <v>4200</v>
       </c>
-      <c r="F58" s="3">
+      <c r="I58" s="3">
         <v>6200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="J58" s="3">
         <v>1400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="K58" s="3">
         <v>1000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="L58" s="3">
         <v>5400</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2839,132 +3240,159 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P58" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q58" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>107800</v>
+      </c>
+      <c r="E59" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>104500</v>
+      </c>
+      <c r="G59" s="3">
         <v>93800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="H59" s="3">
         <v>91900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="I59" s="3">
         <v>89100</v>
       </c>
-      <c r="G59" s="3">
+      <c r="J59" s="3">
         <v>15200</v>
       </c>
-      <c r="H59" s="3">
+      <c r="K59" s="3">
         <v>5100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="L59" s="3">
         <v>3000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="M59" s="3">
         <v>800</v>
       </c>
-      <c r="K59" s="3">
+      <c r="N59" s="3">
         <v>3300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="O59" s="3">
         <v>600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="P59" s="3">
         <v>200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="Q59" s="3">
         <v>700</v>
       </c>
-      <c r="O59" s="3">
+      <c r="R59" s="3">
         <v>200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="S59" s="3">
         <v>100</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="T59" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>120900</v>
+      </c>
+      <c r="E60" s="3">
+        <v>115600</v>
+      </c>
+      <c r="F60" s="3">
+        <v>107600</v>
+      </c>
+      <c r="G60" s="3">
         <v>106800</v>
       </c>
-      <c r="E60" s="3">
+      <c r="H60" s="3">
         <v>104500</v>
       </c>
-      <c r="F60" s="3">
+      <c r="I60" s="3">
         <v>107500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="J60" s="3">
         <v>21500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="K60" s="3">
         <v>6700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="L60" s="3">
         <v>8900</v>
       </c>
-      <c r="J60" s="3">
+      <c r="M60" s="3">
         <v>1300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="N60" s="3">
         <v>3400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="O60" s="3">
         <v>700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="P60" s="3">
         <v>300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="Q60" s="3">
         <v>900</v>
       </c>
-      <c r="O60" s="3">
+      <c r="R60" s="3">
         <v>300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="S60" s="3">
         <v>200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="T60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>61100</v>
+      </c>
+      <c r="E61" s="3">
+        <v>64800</v>
+      </c>
+      <c r="F61" s="3">
+        <v>62200</v>
+      </c>
+      <c r="G61" s="3">
         <v>80000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="H61" s="3">
         <v>75900</v>
       </c>
-      <c r="F61" s="3">
+      <c r="I61" s="3">
         <v>66400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="J61" s="3">
         <v>7600</v>
       </c>
-      <c r="H61" s="3">
-        <v>0</v>
-      </c>
-      <c r="I61" s="3">
-        <v>0</v>
-      </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2986,32 +3414,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>47700</v>
+      </c>
+      <c r="E62" s="3">
+        <v>48600</v>
+      </c>
+      <c r="F62" s="3">
+        <v>44100</v>
+      </c>
+      <c r="G62" s="3">
         <v>33900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="H62" s="3">
         <v>35000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="I62" s="3">
         <v>35200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="J62" s="3">
         <v>500</v>
       </c>
-      <c r="H62" s="3">
-        <v>0</v>
-      </c>
-      <c r="I62" s="3">
-        <v>0</v>
-      </c>
-      <c r="J62" s="3">
-        <v>0</v>
-      </c>
       <c r="K62" s="3">
         <v>0</v>
       </c>
@@ -3033,8 +3470,17 @@
       <c r="Q62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3">
+        <v>0</v>
+      </c>
+      <c r="S62" s="3">
+        <v>0</v>
+      </c>
+      <c r="T62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3080,8 +3526,17 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3127,8 +3582,17 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3174,55 +3638,73 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>232600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>230700</v>
+      </c>
+      <c r="F66" s="3">
+        <v>216100</v>
+      </c>
+      <c r="G66" s="3">
         <v>220700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="H66" s="3">
         <v>215400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="I66" s="3">
         <v>209000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="J66" s="3">
         <v>29700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="K66" s="3">
         <v>6700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="L66" s="3">
         <v>8900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="M66" s="3">
         <v>1300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="N66" s="3">
         <v>3400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="O66" s="3">
         <v>700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="P66" s="3">
         <v>300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="Q66" s="3">
         <v>900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="R66" s="3">
         <v>300</v>
       </c>
-      <c r="P66" s="3">
+      <c r="S66" s="3">
         <v>200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="T66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3240,8 +3722,11 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+      <c r="S67" s="3"/>
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3287,8 +3772,17 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3334,34 +3828,43 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>18400</v>
+      </c>
+      <c r="E70" s="3">
+        <v>18400</v>
+      </c>
+      <c r="F70" s="3">
+        <v>18400</v>
+      </c>
+      <c r="G70" s="3">
         <v>61500</v>
       </c>
-      <c r="E70" s="3">
+      <c r="H70" s="3">
         <v>55700</v>
       </c>
-      <c r="F70" s="3">
+      <c r="I70" s="3">
         <v>55700</v>
       </c>
-      <c r="G70" s="3">
+      <c r="J70" s="3">
         <v>18400</v>
       </c>
-      <c r="H70" s="3">
+      <c r="K70" s="3">
         <v>18200</v>
-      </c>
-      <c r="I70" s="3">
-        <v>200</v>
-      </c>
-      <c r="J70" s="3">
-        <v>200</v>
-      </c>
-      <c r="K70" s="3">
-        <v>200</v>
       </c>
       <c r="L70" s="3">
         <v>200</v>
@@ -3381,8 +3884,17 @@
       <c r="Q70" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>200</v>
+      </c>
+      <c r="S70" s="3">
+        <v>200</v>
+      </c>
+      <c r="T70" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3428,55 +3940,73 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-208400</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-187700</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-162300</v>
+      </c>
+      <c r="G72" s="3">
         <v>-140200</v>
       </c>
-      <c r="E72" s="3">
+      <c r="H72" s="3">
         <v>-119000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="I72" s="3">
         <v>-95800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="J72" s="3">
         <v>-34500</v>
       </c>
-      <c r="H72" s="3">
+      <c r="K72" s="3">
         <v>-25900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="L72" s="3">
         <v>-17300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="M72" s="3">
         <v>-12000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="N72" s="3">
         <v>-8500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="O72" s="3">
         <v>-6600</v>
       </c>
-      <c r="M72" s="3">
+      <c r="P72" s="3">
         <v>-4800</v>
       </c>
-      <c r="N72" s="3">
+      <c r="Q72" s="3">
         <v>-3200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="R72" s="3">
         <v>-2200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="S72" s="3">
         <v>-62700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="T72" s="3">
         <v>-62600</v>
       </c>
     </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3522,8 +4052,17 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3569,8 +4108,17 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3616,55 +4164,73 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E76" s="3">
+        <v>-58700</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-38700</v>
+      </c>
+      <c r="G76" s="3">
         <v>-91300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="H76" s="3">
         <v>-74600</v>
       </c>
-      <c r="F76" s="3">
+      <c r="I76" s="3">
         <v>-55600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="J76" s="3">
         <v>-10900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="K76" s="3">
         <v>-5300</v>
       </c>
-      <c r="I76" s="3">
+      <c r="L76" s="3">
         <v>1800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="M76" s="3">
         <v>5500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="N76" s="3">
         <v>3000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="O76" s="3">
         <v>3500</v>
       </c>
-      <c r="M76" s="3">
+      <c r="P76" s="3">
         <v>3000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="Q76" s="3">
         <v>3400</v>
       </c>
-      <c r="O76" s="3">
+      <c r="R76" s="3">
         <v>800</v>
       </c>
-      <c r="P76" s="3">
+      <c r="S76" s="3">
         <v>1900</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="T76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3710,107 +4276,134 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="F80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="T80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G81" s="3">
         <v>-21400</v>
       </c>
-      <c r="E81" s="3">
+      <c r="H81" s="3">
         <v>-23200</v>
       </c>
-      <c r="F81" s="3">
+      <c r="I81" s="3">
         <v>-22800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="J81" s="3">
         <v>-8600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="K81" s="3">
         <v>-26700</v>
       </c>
-      <c r="I81" s="3">
+      <c r="L81" s="3">
         <v>-5200</v>
       </c>
-      <c r="J81" s="3">
+      <c r="M81" s="3">
         <v>-3600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="N81" s="3">
         <v>-1900</v>
       </c>
-      <c r="L81" s="3">
+      <c r="O81" s="3">
         <v>-1800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="P81" s="3">
         <v>-1600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="Q81" s="3">
         <v>-1000</v>
       </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S81" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="T81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3828,8 +4421,11 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+      <c r="S82" s="3"/>
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3837,46 +4433,55 @@
         <v>6100</v>
       </c>
       <c r="E83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="F83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="G83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="H83" s="3">
         <v>6300</v>
       </c>
-      <c r="F83" s="3">
+      <c r="I83" s="3">
         <v>6100</v>
       </c>
-      <c r="G83" s="3">
+      <c r="J83" s="3">
         <v>1000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="K83" s="3">
         <v>600</v>
       </c>
-      <c r="I83" s="3">
+      <c r="L83" s="3">
         <v>400</v>
       </c>
-      <c r="J83" s="3">
+      <c r="M83" s="3">
         <v>400</v>
       </c>
-      <c r="K83" s="3">
+      <c r="N83" s="3">
         <v>300</v>
       </c>
-      <c r="L83" s="3">
+      <c r="O83" s="3">
         <v>200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="P83" s="3">
         <v>100</v>
       </c>
-      <c r="N83" s="3">
-        <v>0</v>
-      </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3">
+        <v>0</v>
+      </c>
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3922,8 +4527,17 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3969,8 +4583,17 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4016,8 +4639,17 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4063,8 +4695,17 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4110,55 +4751,73 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="F89" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="G89" s="3">
         <v>-2900</v>
       </c>
-      <c r="E89" s="3">
+      <c r="H89" s="3">
         <v>-7300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="I89" s="3">
         <v>-10200</v>
       </c>
-      <c r="G89" s="3">
+      <c r="J89" s="3">
         <v>-1100</v>
       </c>
-      <c r="H89" s="3">
+      <c r="K89" s="3">
         <v>-2200</v>
       </c>
-      <c r="I89" s="3">
+      <c r="L89" s="3">
         <v>-2300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="M89" s="3">
         <v>-1800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="N89" s="3">
         <v>-1500</v>
       </c>
-      <c r="L89" s="3">
+      <c r="O89" s="3">
         <v>-900</v>
       </c>
-      <c r="M89" s="3">
+      <c r="P89" s="3">
         <v>-1200</v>
       </c>
-      <c r="N89" s="3">
+      <c r="Q89" s="3">
         <v>-500</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P89" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4176,40 +4835,43 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+      <c r="S90" s="3"/>
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="E91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="F91" s="3">
+        <v>-100</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
         <v>-200</v>
       </c>
-      <c r="F91" s="3">
+      <c r="I91" s="3">
         <v>-900</v>
       </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K91" s="3">
-        <v>0</v>
-      </c>
-      <c r="L91" s="3">
-        <v>0</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
+      <c r="J91" s="3">
+        <v>0</v>
+      </c>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="N91" s="3">
         <v>0</v>
@@ -4217,14 +4879,23 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="P91" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q91" s="3">
+        <v>0</v>
+      </c>
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4270,8 +4941,17 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4317,55 +4997,73 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-8200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F94" s="3">
+        <v>-600</v>
+      </c>
+      <c r="G94" s="3">
         <v>-800</v>
       </c>
-      <c r="E94" s="3">
+      <c r="H94" s="3">
         <v>-1400</v>
       </c>
-      <c r="F94" s="3">
+      <c r="I94" s="3">
         <v>-2000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="J94" s="3">
         <v>-9200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="K94" s="3">
         <v>-7300</v>
       </c>
-      <c r="I94" s="3">
+      <c r="L94" s="3">
         <v>-5600</v>
       </c>
-      <c r="J94" s="3">
+      <c r="M94" s="3">
         <v>-1600</v>
       </c>
-      <c r="K94" s="3">
+      <c r="N94" s="3">
         <v>-500</v>
       </c>
-      <c r="L94" s="3">
+      <c r="O94" s="3">
         <v>-600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="P94" s="3">
         <v>-500</v>
       </c>
-      <c r="N94" s="3">
+      <c r="Q94" s="3">
         <v>-400</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S94" s="3">
         <v>-300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="T94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4383,8 +5081,11 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+      <c r="S95" s="3"/>
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4430,8 +5131,17 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4477,8 +5187,17 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4524,8 +5243,17 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4571,55 +5299,73 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>18900</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>16500</v>
+      </c>
+      <c r="G100" s="3">
         <v>6200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="H100" s="3">
         <v>3400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="I100" s="3">
         <v>11200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="J100" s="3">
         <v>11000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="K100" s="3">
         <v>11200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="L100" s="3">
         <v>6500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="M100" s="3">
         <v>1300</v>
       </c>
-      <c r="K100" s="3">
+      <c r="N100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="O100" s="3">
         <v>1700</v>
       </c>
-      <c r="M100" s="3">
+      <c r="P100" s="3">
         <v>100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="Q100" s="3">
         <v>3500</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4665,51 +5411,69 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>2200</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-4500</v>
+      </c>
+      <c r="F102" s="3">
+        <v>3800</v>
+      </c>
+      <c r="G102" s="3">
         <v>2500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="H102" s="3">
         <v>-5300</v>
       </c>
-      <c r="F102" s="3">
+      <c r="I102" s="3">
         <v>-900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="J102" s="3">
         <v>700</v>
       </c>
-      <c r="H102" s="3">
+      <c r="K102" s="3">
         <v>1700</v>
       </c>
-      <c r="I102" s="3">
+      <c r="L102" s="3">
         <v>-1400</v>
       </c>
-      <c r="J102" s="3">
+      <c r="M102" s="3">
         <v>-2100</v>
       </c>
-      <c r="K102" s="3">
+      <c r="N102" s="3">
         <v>1900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="O102" s="3">
         <v>300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="P102" s="3">
         <v>-1700</v>
       </c>
-      <c r="N102" s="3">
+      <c r="Q102" s="3">
         <v>2500</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3">
         <v>-200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="T102" s="3">
         <v>300</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/MVEN_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/MVEN_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="92">
   <si>
     <t>MVEN</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,128 +665,132 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S7" s="2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>59600</v>
+      </c>
+      <c r="E8" s="3">
         <v>34700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>33600</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>42400</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>32100</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>23100</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>30400</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>4200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>200</v>
-      </c>
-      <c r="M8" s="3">
-        <v>100</v>
       </c>
       <c r="N8" s="3">
         <v>100</v>
       </c>
       <c r="O8" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="P8" s="3">
         <v>0</v>
@@ -794,61 +798,64 @@
       <c r="Q8" s="3">
         <v>0</v>
       </c>
-      <c r="R8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T8" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>32200</v>
+      </c>
+      <c r="E9" s="3">
         <v>23600</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>28200</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>26700</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>24700</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>24900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>26700</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>3700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1100</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>900</v>
-      </c>
-      <c r="O9" s="3">
-        <v>400</v>
       </c>
       <c r="P9" s="3">
         <v>400</v>
       </c>
-      <c r="Q9" s="3" t="s">
-        <v>3</v>
+      <c r="Q9" s="3">
+        <v>400</v>
       </c>
       <c r="R9" s="3" t="s">
         <v>3</v>
@@ -859,52 +866,55 @@
       <c r="T9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>27400</v>
+      </c>
+      <c r="E10" s="3">
         <v>11100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>15700</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>7400</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>-1800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>3700</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-600</v>
-      </c>
-      <c r="L10" s="3">
-        <v>-900</v>
       </c>
       <c r="M10" s="3">
         <v>-900</v>
       </c>
       <c r="N10" s="3">
+        <v>-900</v>
+      </c>
+      <c r="O10" s="3">
         <v>-800</v>
-      </c>
-      <c r="O10" s="3">
-        <v>-400</v>
       </c>
       <c r="P10" s="3">
         <v>-400</v>
       </c>
-      <c r="Q10" s="3" t="s">
-        <v>3</v>
+      <c r="Q10" s="3">
+        <v>-400</v>
       </c>
       <c r="R10" s="3" t="s">
         <v>3</v>
@@ -915,8 +925,11 @@
       <c r="T10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -937,8 +950,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -960,20 +974,20 @@
       <c r="I12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K12" s="3">
         <v>600</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>400</v>
-      </c>
-      <c r="L12" s="3">
-        <v>100</v>
       </c>
       <c r="M12" s="3">
         <v>100</v>
       </c>
       <c r="N12" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="O12" s="3">
         <v>0</v>
@@ -982,19 +996,22 @@
         <v>0</v>
       </c>
       <c r="Q12" s="3">
+        <v>0</v>
+      </c>
+      <c r="R12" s="3">
         <v>100</v>
       </c>
-      <c r="R12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S12" s="3">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T12" s="3">
         <v>400</v>
       </c>
-      <c r="T12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1049,43 +1066,46 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>1100</v>
+        <v>800</v>
       </c>
       <c r="E14" s="3">
+        <v>-4600</v>
+      </c>
+      <c r="F14" s="3">
         <v>300</v>
       </c>
-      <c r="F14" s="3">
-        <v>3300</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>300</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>600</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>2600</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>3900</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>1400</v>
       </c>
-      <c r="M14" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="3">
-        <v>0</v>
+      <c r="N14" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O14" s="3">
         <v>0</v>
@@ -1105,13 +1125,16 @@
       <c r="T14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="E15" s="3">
         <v>4000</v>
@@ -1120,7 +1143,7 @@
         <v>4000</v>
       </c>
       <c r="G15" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="H15" s="3">
         <v>4100</v>
@@ -1128,8 +1151,8 @@
       <c r="I15" s="3">
         <v>4100</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>3</v>
+      <c r="J15" s="3">
+        <v>4100</v>
       </c>
       <c r="K15" s="3" t="s">
         <v>3</v>
@@ -1140,8 +1163,8 @@
       <c r="M15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N15" s="3">
-        <v>0</v>
+      <c r="N15" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O15" s="3">
         <v>0</v>
@@ -1161,8 +1184,11 @@
       <c r="T15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1180,120 +1206,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+      <c r="D17" s="3">
+        <v>82800</v>
+      </c>
+      <c r="E17" s="3">
+        <v>53400</v>
+      </c>
+      <c r="F17" s="3">
+        <v>55600</v>
       </c>
       <c r="G17" s="3">
+        <v>57800</v>
+      </c>
+      <c r="H17" s="3">
         <v>46200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>45300</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>51200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>9700</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>5500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>3700</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>2000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1800</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1000</v>
       </c>
-      <c r="R17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S17" s="3">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T17" s="3">
         <v>1500</v>
       </c>
-      <c r="T17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+      <c r="D18" s="3">
+        <v>-23200</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-22000</v>
       </c>
       <c r="G18" s="3">
+        <v>-15400</v>
+      </c>
+      <c r="H18" s="3">
         <v>-14100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-22200</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-20800</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7400</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5300</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-3600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-1900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-1800</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-1000</v>
       </c>
-      <c r="R18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S18" s="3">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T18" s="3">
         <v>-1500</v>
       </c>
-      <c r="T18" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1314,41 +1347,42 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
+      <c r="D20" s="3">
+        <v>800</v>
+      </c>
+      <c r="E20" s="3">
+        <v>400</v>
+      </c>
+      <c r="F20" s="3">
+        <v>-600</v>
       </c>
       <c r="G20" s="3">
+        <v>-2100</v>
+      </c>
+      <c r="H20" s="3">
         <v>-2900</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>100</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>200</v>
       </c>
-      <c r="M20" s="3">
-        <v>0</v>
-      </c>
       <c r="N20" s="3">
         <v>0</v>
       </c>
@@ -1361,215 +1395,227 @@
       <c r="Q20" s="3">
         <v>0</v>
       </c>
-      <c r="R20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S20" s="3">
-        <v>0</v>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-12200</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-16500</v>
       </c>
       <c r="G21" s="3">
+        <v>-11300</v>
+      </c>
+      <c r="H21" s="3">
         <v>-10900</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>-12700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-12800</v>
-      </c>
-      <c r="J21" s="3">
-        <v>-6700</v>
       </c>
       <c r="K21" s="3">
         <v>-6700</v>
       </c>
       <c r="L21" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="M21" s="3">
         <v>-4700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-3200</v>
-      </c>
-      <c r="N21" s="3">
-        <v>-1600</v>
       </c>
       <c r="O21" s="3">
         <v>-1600</v>
       </c>
       <c r="P21" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="Q21" s="3">
         <v>-1500</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1000</v>
       </c>
-      <c r="R21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E22" s="3">
         <v>2400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>2800</v>
-      </c>
-      <c r="F22" s="3">
-        <v>4300</v>
       </c>
       <c r="G22" s="3">
         <v>4300</v>
       </c>
       <c r="H22" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I22" s="3">
         <v>4100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>3800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>1400</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
+      <c r="O22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>3</v>
+      <c r="Q22" s="3">
+        <v>0</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
+      <c r="S22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-24900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20700</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-25500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-21800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-21300</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-23200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-22800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-8600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-8700</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-3600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-1900</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-1800</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-1000</v>
       </c>
-      <c r="R23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S23" s="3">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T23" s="3">
         <v>-1500</v>
       </c>
-      <c r="T23" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F24" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="3">
-        <v>0</v>
+      <c r="H24" s="3">
+        <v>0</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="J24" s="3">
         <v>0</v>
       </c>
       <c r="K24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="3">
         <v>-100</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
@@ -1582,20 +1628,23 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="Q24" s="3">
-        <v>0</v>
-      </c>
-      <c r="R24" s="3" t="s">
-        <v>3</v>
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R24" s="3">
+        <v>0</v>
       </c>
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="T24" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1650,120 +1699,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+      <c r="D26" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-25500</v>
       </c>
       <c r="G26" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H26" s="3">
         <v>-21300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22800</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-8600</v>
       </c>
       <c r="K26" s="3">
         <v>-8600</v>
       </c>
       <c r="L26" s="3">
+        <v>-8600</v>
+      </c>
+      <c r="M26" s="3">
         <v>-5200</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-3600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-1900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-1800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-1000</v>
       </c>
-      <c r="R26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S26" s="3">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T26" s="3">
         <v>-1500</v>
       </c>
-      <c r="T26" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+      <c r="D27" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-25500</v>
       </c>
       <c r="G27" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="H27" s="3">
         <v>-21400</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23200</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-22800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-26700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5200</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-3600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-1900</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-1800</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-1000</v>
       </c>
-      <c r="R27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S27" s="3">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T27" s="3">
         <v>-1500</v>
       </c>
-      <c r="T27" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1818,8 +1876,11 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1874,8 +1935,11 @@
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1930,8 +1994,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1986,41 +2053,44 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
+      <c r="D32" s="3">
+        <v>-800</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="F32" s="3">
+        <v>600</v>
       </c>
       <c r="G32" s="3">
+        <v>2100</v>
+      </c>
+      <c r="H32" s="3">
         <v>2900</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-100</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-200</v>
       </c>
-      <c r="M32" s="3">
-        <v>0</v>
-      </c>
       <c r="N32" s="3">
         <v>0</v>
       </c>
@@ -2033,73 +2103,79 @@
       <c r="Q32" s="3">
         <v>0</v>
       </c>
-      <c r="R32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S32" s="3">
-        <v>0</v>
+      <c r="R32" s="3">
+        <v>0</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+      <c r="D33" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-25500</v>
       </c>
       <c r="G33" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="H33" s="3">
         <v>-21400</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23200</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-22800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-8600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-26700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5200</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-3600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-1900</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-1800</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-1000</v>
       </c>
-      <c r="R33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S33" s="3">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" s="3">
         <v>-1500</v>
       </c>
-      <c r="T33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2154,125 +2230,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+      <c r="D35" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-25500</v>
       </c>
       <c r="G35" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="H35" s="3">
         <v>-21400</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23200</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-22800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-8600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-26700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5200</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-3600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-1900</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-1800</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-1000</v>
       </c>
-      <c r="R35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S35" s="3">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" s="3">
         <v>-1500</v>
       </c>
-      <c r="T35" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S38" s="2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2293,8 +2378,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2315,64 +2401,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>8200</v>
+      </c>
+      <c r="E41" s="3">
         <v>6700</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>4500</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>9000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>4700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>2300</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>7500</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>2400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>1900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>1500</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>1700</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>1400</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>3100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>600</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>500</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>900</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2406,8 +2496,8 @@
       <c r="M42" s="3">
         <v>0</v>
       </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
+      <c r="N42" s="3">
+        <v>0</v>
       </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
@@ -2421,55 +2511,58 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S42" s="3">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T42" s="3">
         <v>1100</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1400</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>19500</v>
+      </c>
+      <c r="E43" s="3">
         <v>14700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>14100</v>
       </c>
-      <c r="F43" s="3">
-        <v>16600</v>
-      </c>
       <c r="G43" s="3">
+        <v>16500</v>
+      </c>
+      <c r="H43" s="3">
         <v>11700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>10600</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>15900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>6100</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>1600</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
-      </c>
-      <c r="M43" s="3">
-        <v>100</v>
       </c>
       <c r="N43" s="3">
         <v>100</v>
       </c>
       <c r="O43" s="3">
-        <v>0</v>
-      </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
+        <v>100</v>
+      </c>
+      <c r="P43" s="3">
+        <v>0</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
@@ -2477,14 +2570,17 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S43" s="3">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" s="3">
         <v>600</v>
       </c>
-      <c r="T43" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2539,46 +2635,49 @@
       <c r="T44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>51600</v>
+      </c>
+      <c r="E45" s="3">
         <v>61000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>53100</v>
       </c>
-      <c r="F45" s="3">
-        <v>33400</v>
-      </c>
       <c r="G45" s="3">
+        <v>48300</v>
+      </c>
+      <c r="H45" s="3">
         <v>30000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>29200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>27200</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>400</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>600</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3200</v>
-      </c>
-      <c r="O45" s="3">
-        <v>100</v>
       </c>
       <c r="P45" s="3">
         <v>100</v>
@@ -2590,104 +2689,110 @@
         <v>100</v>
       </c>
       <c r="S45" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="T45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E46" s="3">
         <v>82400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>71700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>73800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>46400</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>42100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>50600</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>9500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>3800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2200</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>3900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1500</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>3200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>700</v>
-      </c>
-      <c r="S46" s="3">
-        <v>2300</v>
       </c>
       <c r="T46" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U46" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="D47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J47" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K47" s="3">
+      <c r="D47" s="3">
+        <v>0</v>
+      </c>
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+      <c r="F47" s="3">
+        <v>0</v>
+      </c>
+      <c r="G47" s="3">
+        <v>0</v>
+      </c>
+      <c r="H47" s="3">
+        <v>0</v>
+      </c>
+      <c r="I47" s="3">
+        <v>0</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3">
         <v>2500</v>
-      </c>
-      <c r="L47" s="3">
-        <v>1000</v>
       </c>
       <c r="M47" s="3">
         <v>1000</v>
       </c>
-      <c r="N47" s="3" t="s">
-        <v>3</v>
+      <c r="N47" s="3">
+        <v>1000</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>3</v>
@@ -2707,94 +2812,100 @@
       <c r="T47" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E48" s="3">
         <v>19000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>19200</v>
       </c>
-      <c r="F48" s="3">
-        <v>21100</v>
-      </c>
       <c r="G48" s="3">
+        <v>19400</v>
+      </c>
+      <c r="H48" s="3">
         <v>19900</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>20900</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>21500</v>
-      </c>
-      <c r="J48" s="3">
-        <v>100</v>
       </c>
       <c r="K48" s="3">
         <v>100</v>
       </c>
       <c r="L48" s="3">
+        <v>100</v>
+      </c>
+      <c r="M48" s="3">
         <v>4200</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>2700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2500</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>1900</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>1200</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>500</v>
       </c>
-      <c r="S48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="T48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>88700</v>
+      </c>
+      <c r="E49" s="3">
         <v>93300</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>90200</v>
       </c>
-      <c r="F49" s="3">
-        <v>228500</v>
-      </c>
       <c r="G49" s="3">
+        <v>95000</v>
+      </c>
+      <c r="H49" s="3">
         <v>100400</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>105200</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>109600</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>27400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>13300</v>
       </c>
-      <c r="L49" s="3">
-        <v>0</v>
-      </c>
       <c r="M49" s="3">
         <v>0</v>
       </c>
@@ -2813,14 +2924,17 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-      <c r="S49" s="3" t="s">
-        <v>3</v>
+      <c r="S49" s="3">
+        <v>0</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U49" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2875,8 +2989,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2931,41 +3048,44 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>19400</v>
+      </c>
+      <c r="E52" s="3">
         <v>23900</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>27800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>25900</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>24100</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>28300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>27300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>100</v>
       </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L52" s="3">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M52" s="3">
         <v>5000</v>
       </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
@@ -2981,14 +3101,17 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S52" s="3">
-        <v>0</v>
+      <c r="S52" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3043,64 +3166,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>190200</v>
+      </c>
+      <c r="E54" s="3">
         <v>218500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>208800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>214200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>190800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>196500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>209100</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>37200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>19700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>10900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>7000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6600</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>4400</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3500</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>4400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>1300</v>
-      </c>
-      <c r="S54" s="3">
-        <v>2300</v>
       </c>
       <c r="T54" s="3">
         <v>2300</v>
       </c>
-    </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U54" s="3">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3121,8 +3250,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3143,97 +3273,101 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E57" s="3">
         <v>8200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>10100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>8200</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>8700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>8500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>12200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>4900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>700</v>
-      </c>
-      <c r="L57" s="3">
-        <v>500</v>
       </c>
       <c r="M57" s="3">
         <v>500</v>
       </c>
       <c r="N57" s="3">
+        <v>500</v>
+      </c>
+      <c r="O57" s="3">
         <v>200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100</v>
       </c>
-      <c r="P57" s="3">
-        <v>0</v>
-      </c>
       <c r="Q57" s="3">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="R57" s="3">
         <v>200</v>
       </c>
       <c r="S57" s="3">
+        <v>200</v>
+      </c>
+      <c r="T57" s="3">
         <v>100</v>
       </c>
-      <c r="T57" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>11300</v>
+      </c>
+      <c r="E58" s="3">
         <v>4900</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>5400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>7200</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>4400</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>4200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>6200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>1400</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>1000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>5400</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3249,153 +3383,162 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="S58" s="3">
-        <v>0</v>
+      <c r="S58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>109700</v>
+      </c>
+      <c r="E59" s="3">
         <v>107800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>100000</v>
       </c>
-      <c r="F59" s="3">
-        <v>104500</v>
-      </c>
       <c r="G59" s="3">
+        <v>92200</v>
+      </c>
+      <c r="H59" s="3">
         <v>93800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>91900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>89100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>15200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>5100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>3000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>800</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>3300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>200</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>700</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>200</v>
-      </c>
-      <c r="S59" s="3">
-        <v>100</v>
       </c>
       <c r="T59" s="3">
         <v>100</v>
       </c>
-    </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U59" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>130400</v>
+      </c>
+      <c r="E60" s="3">
         <v>120900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>115600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>107600</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>106800</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>104500</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>107500</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>21500</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6700</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>8900</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>3400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>900</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>58700</v>
+      </c>
+      <c r="E61" s="3">
         <v>61100</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>64800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>62200</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>80000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>75900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>66400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>7600</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -3423,35 +3566,38 @@
       <c r="T61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>47700</v>
+        <v>30400</v>
       </c>
       <c r="E62" s="3">
-        <v>48600</v>
+        <v>50500</v>
       </c>
       <c r="F62" s="3">
-        <v>44100</v>
+        <v>50300</v>
       </c>
       <c r="G62" s="3">
+        <v>46300</v>
+      </c>
+      <c r="H62" s="3">
         <v>33900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>35000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>35200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>500</v>
       </c>
-      <c r="K62" s="3">
-        <v>0</v>
-      </c>
       <c r="L62" s="3">
         <v>0</v>
       </c>
@@ -3479,8 +3625,11 @@
       <c r="T62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3535,8 +3684,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3591,8 +3743,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3647,64 +3802,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>219500</v>
+      </c>
+      <c r="E66" s="3">
         <v>232600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>230700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>216100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>220700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>215400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>209000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>29700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>8900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>1300</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>300</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>900</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>300</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>200</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3725,8 +3886,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3781,8 +3943,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3837,8 +4002,11 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3852,22 +4020,22 @@
         <v>18400</v>
       </c>
       <c r="G70" s="3">
+        <v>18400</v>
+      </c>
+      <c r="H70" s="3">
         <v>61500</v>
-      </c>
-      <c r="H70" s="3">
-        <v>55700</v>
       </c>
       <c r="I70" s="3">
         <v>55700</v>
       </c>
       <c r="J70" s="3">
+        <v>55700</v>
+      </c>
+      <c r="K70" s="3">
         <v>18400</v>
       </c>
-      <c r="K70" s="3">
+      <c r="L70" s="3">
         <v>18200</v>
-      </c>
-      <c r="L70" s="3">
-        <v>200</v>
       </c>
       <c r="M70" s="3">
         <v>200</v>
@@ -3893,8 +4061,11 @@
       <c r="T70" s="3">
         <v>200</v>
       </c>
-    </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U70" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3949,64 +4120,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-233100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-208400</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-187700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-162300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-140200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-119000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-95800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-34500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-25900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-17300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-12000</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-8500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-6600</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-4800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-3200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-2200</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-62700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-62600</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4061,8 +4238,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4117,8 +4297,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4173,64 +4356,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>3</v>
+      <c r="D76" s="3">
+        <v>-47700</v>
       </c>
       <c r="E76" s="3">
-        <v>-58700</v>
+        <v>-32400</v>
       </c>
       <c r="F76" s="3">
-        <v>-38700</v>
+        <v>-40200</v>
       </c>
       <c r="G76" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="H76" s="3">
         <v>-91300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>-74600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-55600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-10900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-5300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1800</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>5500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>3000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>3500</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>3000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>3400</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>800</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1900</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>2000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4285,125 +4474,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="S80" s="2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42551</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+      <c r="D81" s="3">
+        <v>-24700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-20700</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-25500</v>
       </c>
       <c r="G81" s="3">
+        <v>-37500</v>
+      </c>
+      <c r="H81" s="3">
         <v>-21400</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23200</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-22800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-8600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-26700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5200</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-3600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-1900</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-1800</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-1600</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-1000</v>
       </c>
-      <c r="R81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S81" s="3">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T81" s="3">
         <v>-1500</v>
       </c>
-      <c r="T81" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4424,55 +4622,56 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>6100</v>
+        <v>6300</v>
       </c>
       <c r="E83" s="3">
         <v>6100</v>
       </c>
       <c r="F83" s="3">
+        <v>6100</v>
+      </c>
+      <c r="G83" s="3">
         <v>6200</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>6100</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>6300</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>6100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>1000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>600</v>
-      </c>
-      <c r="L83" s="3">
-        <v>400</v>
       </c>
       <c r="M83" s="3">
         <v>400</v>
       </c>
       <c r="N83" s="3">
+        <v>400</v>
+      </c>
+      <c r="O83" s="3">
         <v>300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>200</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>100</v>
       </c>
-      <c r="Q83" s="3">
-        <v>0</v>
-      </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
+      <c r="R83" s="3">
+        <v>0</v>
       </c>
       <c r="S83" s="3" t="s">
         <v>3</v>
@@ -4480,8 +4679,11 @@
       <c r="T83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4536,8 +4738,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4592,8 +4797,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4648,8 +4856,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4704,8 +4915,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4760,64 +4974,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-8400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-1500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-12000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-2900</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-7300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-10200</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-2200</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-2300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-1800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-1500</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-1200</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-500</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3">
-        <v>0</v>
+      <c r="S89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="T89" s="3">
+        <v>0</v>
+      </c>
+      <c r="U89" s="3">
         <v>-100</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4838,8 +5058,9 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4853,19 +5074,19 @@
         <v>-100</v>
       </c>
       <c r="G91" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
         <v>-200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-900</v>
       </c>
-      <c r="J91" s="3">
-        <v>0</v>
-      </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
@@ -4873,8 +5094,8 @@
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4888,14 +5109,17 @@
       <c r="R91" s="3">
         <v>0</v>
       </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
+      <c r="S91" s="3">
+        <v>0</v>
       </c>
       <c r="T91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4950,8 +5174,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5006,64 +5233,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E94" s="3">
         <v>-8200</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-1000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-600</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-1400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-2000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-9200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-7300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-5600</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-1600</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-500</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-600</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-500</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-400</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T94" s="3">
         <v>-300</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>400</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5084,8 +5317,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5140,8 +5374,11 @@
       <c r="T96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5196,8 +5433,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5252,8 +5492,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5308,64 +5551,70 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E100" s="3">
         <v>18900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-2000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>16500</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>6200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>3400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>11200</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>11000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>11200</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>6500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>1300</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>1700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>100</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>3500</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="S100" s="3" t="s">
         <v>3</v>
       </c>
       <c r="T100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5420,60 +5669,66 @@
       <c r="T101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E102" s="3">
         <v>2200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-4500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>3800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>2500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-5300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>700</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>1700</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-1400</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-2100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>1900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>300</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-1700</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>2500</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3">
+      <c r="S102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="T102" s="3">
         <v>-200</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>300</v>
       </c>
     </row>
